--- a/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
+++ b/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>Offset målinger</t>
   </si>
@@ -184,6 +184,102 @@
   </si>
   <si>
     <t>\-0.26605V</t>
+  </si>
+  <si>
+    <t>10KΩ</t>
+  </si>
+  <si>
+    <t>1.3554V</t>
+  </si>
+  <si>
+    <t>\-1.3302V</t>
+  </si>
+  <si>
+    <t>1.3545V</t>
+  </si>
+  <si>
+    <t>1.3534V</t>
+  </si>
+  <si>
+    <t>1.3543V</t>
+  </si>
+  <si>
+    <t>\-0.000082V</t>
+  </si>
+  <si>
+    <t>\-0.000103V</t>
+  </si>
+  <si>
+    <t>\-0.000118V</t>
+  </si>
+  <si>
+    <t>1.5902V</t>
+  </si>
+  <si>
+    <t>Signal sendt ind i faktor 18</t>
+  </si>
+  <si>
+    <t>1.5170V</t>
+  </si>
+  <si>
+    <t>1.5163V</t>
+  </si>
+  <si>
+    <t>sendt ind</t>
+  </si>
+  <si>
+    <t>\-0.07218V</t>
+  </si>
+  <si>
+    <t>\-1.3187V</t>
+  </si>
+  <si>
+    <t>\-1.3256V</t>
+  </si>
+  <si>
+    <t>\1.3222V</t>
+  </si>
+  <si>
+    <t>1.5897V</t>
+  </si>
+  <si>
+    <t>1.3242V</t>
+  </si>
+  <si>
+    <t>1.3239V</t>
+  </si>
+  <si>
+    <t>\-0.2647V</t>
+  </si>
+  <si>
+    <t>\-4.8133V</t>
+  </si>
+  <si>
+    <t>\-4.7880V</t>
+  </si>
+  <si>
+    <t>\4.8203VV</t>
+  </si>
+  <si>
+    <t>\-4.8210V</t>
+  </si>
+  <si>
+    <t>Mætning lav</t>
+  </si>
+  <si>
+    <t>Møtning høj</t>
+  </si>
+  <si>
+    <t>4.8816V</t>
+  </si>
+  <si>
+    <t>4.8802V</t>
+  </si>
+  <si>
+    <t>4.8800&gt;</t>
+  </si>
+  <si>
+    <t>4.8799V</t>
   </si>
 </sst>
 </file>
@@ -256,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -264,6 +360,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="God" xfId="1" builtinId="26"/>
@@ -511,6 +608,573 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6202680" y="3265170"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Tekstfelt 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202680" y="3265170"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Tekstfelt 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16969740" y="701040"/>
+          <a:ext cx="1219200" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100"/>
+            <a:t>2 stk </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10K</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ω</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK"/>
+            <a:t>i serie skaber en </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20K</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ω</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Tekstfelt 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202680" y="2167890"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Tekstfelt 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12656820" y="3813810"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Tekstfelt 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12656820" y="2350770"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1455420" cy="548640"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Tekstfelt 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17106900" y="5577840"/>
+          <a:ext cx="1455420" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Tekstfelt 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16184880" y="5364480"/>
+          <a:ext cx="1554480" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Udregnet;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(x-1.5902)*18=1.3242V</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Tekstfelt 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16184880" y="2156460"/>
+          <a:ext cx="1554480" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Udregnet;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(x-1.5902)*18=1.5163V</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Tekstfelt 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12656820" y="6739890"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -810,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N20"/>
+  <dimension ref="C3:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,9 +1490,14 @@
     <col min="13" max="14" width="11.44140625" customWidth="1"/>
     <col min="15" max="15" width="10.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="27.21875" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,8 +1509,14 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="Q3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,8 +1541,20 @@
       <c r="M4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="Q4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -886,8 +1573,17 @@
       <c r="M5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -906,8 +1602,17 @@
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -917,8 +1622,17 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -938,15 +1652,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="Q9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -956,8 +1679,14 @@
       <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>11</v>
       </c>
@@ -977,7 +1706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -996,16 +1725,34 @@
       <c r="L12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="Q12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1029,8 +1776,14 @@
       <c r="N15" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="Q15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1052,8 +1805,11 @@
       <c r="N16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:21" x14ac:dyDescent="0.3">
       <c r="J17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1070,7 +1826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:21" x14ac:dyDescent="0.3">
       <c r="J18" s="5" t="s">
         <v>32</v>
       </c>
@@ -1086,12 +1842,238 @@
       <c r="N18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="Q18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="Q19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="10:21" x14ac:dyDescent="0.3">
       <c r="J20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="Q21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" t="s">
+        <v>70</v>
+      </c>
+      <c r="T21" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="Q23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="Q27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="R28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="Q30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="Q31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" t="s">
+        <v>78</v>
+      </c>
+      <c r="S37" t="s">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S44" t="s">
+        <v>84</v>
+      </c>
+      <c r="T44" t="s">
+        <v>85</v>
+      </c>
+      <c r="U44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s">
         <v>45</v>
       </c>
     </row>

--- a/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
+++ b/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,10 +1711,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>32</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>32</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.3">

--- a/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
+++ b/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
   <si>
     <t>Offset målinger</t>
   </si>
@@ -385,7 +385,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -596,7 +596,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,6 +1622,15 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
       <c r="R7" t="s">
         <v>55</v>
       </c>
@@ -1642,22 +1651,16 @@
       <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="J9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>52</v>
@@ -1679,6 +1682,12 @@
       <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
       <c r="R10" t="s">
         <v>47</v>
       </c>
@@ -1696,15 +1705,6 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
@@ -1716,14 +1716,14 @@
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
-        <v>50</v>
+      <c r="J12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>51</v>
@@ -1742,6 +1742,15 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
       <c r="Q13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1761,21 +1770,6 @@
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="J15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>65</v>
       </c>
@@ -1790,20 +1784,20 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
-        <v>39</v>
+      <c r="J16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="S16" t="s">
         <v>69</v>
@@ -1811,36 +1805,36 @@
     </row>
     <row r="17" spans="10:21" x14ac:dyDescent="0.3">
       <c r="J17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="10:21" x14ac:dyDescent="0.3">
       <c r="J18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>46</v>
@@ -1859,6 +1853,21 @@
       </c>
     </row>
     <row r="19" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
       <c r="Q19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1876,12 +1885,6 @@
       </c>
     </row>
     <row r="20" spans="10:21" x14ac:dyDescent="0.3">
-      <c r="J20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" t="s">
-        <v>45</v>
-      </c>
       <c r="Q20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1899,6 +1902,12 @@
       </c>
     </row>
     <row r="21" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
       <c r="Q21" s="5" t="s">
         <v>32</v>
       </c>

--- a/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
+++ b/rapportAfsnit/eProblemloesning/Test/Målinger_Offset_Forstærker.xlsx
@@ -204,15 +204,6 @@
     <t>1.3543V</t>
   </si>
   <si>
-    <t>\-0.000082V</t>
-  </si>
-  <si>
-    <t>\-0.000103V</t>
-  </si>
-  <si>
-    <t>\-0.000118V</t>
-  </si>
-  <si>
     <t>1.5902V</t>
   </si>
   <si>
@@ -280,6 +271,15 @@
   </si>
   <si>
     <t>4.8799V</t>
+  </si>
+  <si>
+    <t>\-0.0082V</t>
+  </si>
+  <si>
+    <t>\-0.0103V</t>
+  </si>
+  <si>
+    <t>\-0.00118V</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1692,7 @@
         <v>47</v>
       </c>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.3">
@@ -1755,10 +1755,10 @@
         <v>32</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.3">
@@ -1771,10 +1771,10 @@
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="Q15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="10:21" x14ac:dyDescent="0.3">
@@ -1892,13 +1892,13 @@
         <v>34</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="T20" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="10:21" x14ac:dyDescent="0.3">
@@ -1915,13 +1915,13 @@
         <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="10:21" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
     </row>
     <row r="26" spans="10:21" x14ac:dyDescent="0.3">
       <c r="Q26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="10:21" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>47</v>
       </c>
       <c r="S28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="10:21" x14ac:dyDescent="0.3">
@@ -1972,23 +1972,23 @@
         <v>32</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S33" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="17:21" x14ac:dyDescent="0.3">
       <c r="S34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="17:21" x14ac:dyDescent="0.3">
@@ -2013,16 +2013,16 @@
         <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s">
         <v>77</v>
-      </c>
-      <c r="T37" t="s">
-        <v>79</v>
-      </c>
-      <c r="U37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="17:21" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
     </row>
     <row r="42" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="17:21" x14ac:dyDescent="0.3">
@@ -2063,16 +2063,16 @@
         <v>32</v>
       </c>
       <c r="R44" t="s">
+        <v>80</v>
+      </c>
+      <c r="S44" t="s">
+        <v>81</v>
+      </c>
+      <c r="T44" t="s">
+        <v>82</v>
+      </c>
+      <c r="U44" t="s">
         <v>83</v>
-      </c>
-      <c r="S44" t="s">
-        <v>84</v>
-      </c>
-      <c r="T44" t="s">
-        <v>85</v>
-      </c>
-      <c r="U44" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="17:21" x14ac:dyDescent="0.3">
